--- a/Data Test.xlsx
+++ b/Data Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Date modul SDA 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\SDA\Date modul SDA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59DC3B5-B698-432B-8C0A-7E08695381C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616685E4-D40F-4D6B-9132-9108EB79DEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="3810" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="230">
   <si>
     <t>Skenario Pengujian</t>
   </si>
@@ -476,12 +476,6 @@
     <t>data date yang di pasing memiliki nilai tahun habis di bagi 4 dan tidak habis dibagi 100</t>
   </si>
   <si>
-    <t>fungsi mereturn nilai True</t>
-  </si>
-  <si>
-    <t>fungsi mereturn nilai False</t>
-  </si>
-  <si>
     <t>GetTgl</t>
   </si>
   <si>
@@ -518,24 +512,6 @@
     <t>Menyimpan nilai dari parsing variabel tipe data integer ke variabel bertipe date pada bagian tahun</t>
   </si>
   <si>
-    <t>parameter pertama : 11 dan parameter kedua di parsing by address suatu variabel bertipe date</t>
-  </si>
-  <si>
-    <t>parameter pertama : 3 dan parameter kedua di parsing by address suatu variabel bertipe date</t>
-  </si>
-  <si>
-    <t>parameter pertama : 2006 dan parameter kedua di parsing by address suatu variabel bertipe date</t>
-  </si>
-  <si>
-    <t>Tahun berhasi di set menjadi 2006</t>
-  </si>
-  <si>
-    <t>Bulan berhasi di set menjadi 3</t>
-  </si>
-  <si>
-    <t>Tanggal berhasi di set menjadi 11</t>
-  </si>
-  <si>
     <t>Date D yang memiliki nilai  --&gt; Tanggal : 11 Bulan : 3 Tahun : 2006</t>
   </si>
   <si>
@@ -546,9 +522,6 @@
   </si>
   <si>
     <t>Date D yang memiliki nilai  --&gt; Tanggal : 11 Bulan : 3 Tahun : 2004</t>
-  </si>
-  <si>
-    <t>Fungsi mereturn nilai Tahun 2004</t>
   </si>
   <si>
     <t>Fungsi mereturn nilai Bulan 3</t>
@@ -680,13 +653,7 @@
     <t>Date D yang memiliki nilai  --&gt; Tanggal : 31 Bulan : 3 Tahun : 2006</t>
   </si>
   <si>
-    <t>Date D yang memiliki nilai  --&gt; Tanggal : 30 Bulan : 4 Tahun : 2007</t>
-  </si>
-  <si>
     <t>Date D yang memiliki nilai  --&gt; Tanggal : 31 Bulan : 5 Tahun : 2006</t>
-  </si>
-  <si>
-    <t>Date D yang memiliki nilai  --&gt; Tanggal : 30 Bulan : 6 Tahun : 2007</t>
   </si>
   <si>
     <t>Date D yang memiliki nilai  --&gt; Tanggal : 31 Bulan : 7 Tahun : 2006</t>
@@ -695,13 +662,7 @@
     <t>Date D yang memiliki nilai  --&gt; Tanggal : 31 Bulan : 8 Tahun : 2006</t>
   </si>
   <si>
-    <t>Date D yang memiliki nilai  --&gt; Tanggal : 30 Bulan : 9 Tahun : 2007</t>
-  </si>
-  <si>
     <t>Date D yang memiliki nilai  --&gt; Tanggal : 31 Bulan : 10 Tahun : 2006</t>
-  </si>
-  <si>
-    <t>Date D yang memiliki nilai  --&gt; Tanggal : 30 Bulan : 11 Tahun : 2007</t>
   </si>
   <si>
     <t>Date D yang memiliki nilai  --&gt; Tanggal : 31 Bulan : 12 Tahun : 2006</t>
@@ -793,6 +754,135 @@
   <si>
     <t xml:space="preserve">Parameter 1 : Date D yang memiliki nilai  --&gt; Tanggal : 13 Bulan : 4 Tahun : 2007  /////// dan /////// Parameter 2 : Date D yang memiliki nilai  --&gt; Tanggal : 19 Bulan : 5 Tahun : 2009                                     </t>
   </si>
+  <si>
+    <t>Prosedur akan menampilkan hari sebelumnya yaitu : 31/12/2005</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari sebelumnya yaitu : 31/1/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari sebelumnya yaitu : 28/2/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari sebelumnya yaitu : 31/3/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari sebelumnya yaitu : 31/5/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari sebelumnya yaitu : 30/4/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari sebelumnya yaitu : 30/6/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari sebelumnya yaitu : 31/7/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari sebelumnya yaitu : 31/8/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari sebelumnya yaitu : 30/9/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari sebelumnya yaitu : 31/10/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari sebelumnya yaitu : 30/11/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari sebelumnya yaitu : 12/4/2007</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari setelahnya yaitu : 1/2/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari setelahnya yaitu : 1/3/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari setelahnya yaitu : 1/4/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari setelahnya yaitu : 1/5/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari setelahnya yaitu : 1/6/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari setelahnya yaitu : 1/7/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari setelahnya yaitu : 1/8/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari setelahnya yaitu : 1/9/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari setelahnya yaitu : 1/10/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari setelahnya yaitu : 1/11/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari setelahnya yaitu : 1/12/2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari setelahnya yaitu : 1/1/2007</t>
+  </si>
+  <si>
+    <t>Date D yang memiliki nilai  --&gt; Tanggal : 30 Bulan : 11 Tahun : 2006</t>
+  </si>
+  <si>
+    <t>Date D yang memiliki nilai  --&gt; Tanggal : 30 Bulan : 9 Tahun : 2006</t>
+  </si>
+  <si>
+    <t>Date D yang memiliki nilai  --&gt; Tanggal : 30 Bulan : 6 Tahun : 2006</t>
+  </si>
+  <si>
+    <t>Date D yang memiliki nilai  --&gt; Tanggal : 30 Bulan : 4 Tahun : 2006</t>
+  </si>
+  <si>
+    <t>Prosedur akan menampilkan hari setelahnya yaitu : 14/4/2007</t>
+  </si>
+  <si>
+    <t>Prosedure akan menampilkan selisih hari yaitu :</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Fungsi mereturn nilai Tahun 2006</t>
+  </si>
+  <si>
+    <t>parameter pertama : 2025 dan parameter kedua di parsing by address suatu variabel bertipe date</t>
+  </si>
+  <si>
+    <t>parameter pertama : 2 dan parameter kedua di parsing by address suatu variabel bertipe date</t>
+  </si>
+  <si>
+    <t>parameter pertama : 14 dan parameter kedua di parsing by address suatu variabel bertipe date</t>
+  </si>
+  <si>
+    <t>Tanggal berhasi di set menjadi 14</t>
+  </si>
+  <si>
+    <t>Bulan berhasi di set menjadi 2</t>
+  </si>
+  <si>
+    <t>Tahun berhasi di set menjadi 2025</t>
+  </si>
+  <si>
+    <t>fungsi mereturn nilai True / 1</t>
+  </si>
+  <si>
+    <t>fungsi mereturn nilai False /0</t>
+  </si>
+  <si>
+    <t>fungsi mereturn nilai True /1</t>
+  </si>
 </sst>
 </file>
 
@@ -831,15 +921,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -847,11 +943,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -874,10 +985,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -887,29 +994,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,12 +1050,2171 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1549111</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>804863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2635E8-CAE4-56BA-75F7-983F3AC42C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5538788" y="1038225"/>
+          <a:ext cx="1544348" cy="804863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95499</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1487799</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278ACB12-C3F9-1199-A5BA-E745998FF200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629524" y="1949564"/>
+          <a:ext cx="1392300" cy="784111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1553783</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>681038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8479698-8470-777D-8D11-09A2483CCEB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543551" y="2857500"/>
+          <a:ext cx="1544257" cy="681038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>20411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1460621</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>755197</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D221D82B-29CF-4A97-197D-CA931A639435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5599340" y="2986768"/>
+          <a:ext cx="1392585" cy="734786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1174159</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1554880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322CBF67-E2E2-53BF-D7FF-BA5ED35BF9C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect t="-1" r="15203" b="-1002"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5531847" y="4773162"/>
+          <a:ext cx="1557058" cy="498926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1500189</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1096977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E3B079-4618-955A-9651-C196AB5F12A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534026" y="5819776"/>
+          <a:ext cx="1500188" cy="1096976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2045271</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>778564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C911A32-D689-27CC-55F0-B2794CB56A01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5586621" y="11355457"/>
+          <a:ext cx="1987292" cy="753716"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2007171</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>806724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D5AB04-3DAD-7A0C-5341-18BD1D3D4698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5548521" y="12356824"/>
+          <a:ext cx="1987292" cy="753716"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56322</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>39756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2043614</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>793472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5577E570-4E5B-87A6-52A8-3324B36052DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5584964" y="13155267"/>
+          <a:ext cx="1987292" cy="753716"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>97005</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1843088</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1419004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07690D6D-90BE-8EDC-D309-53DA4C3AEBA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5631030" y="14016881"/>
+          <a:ext cx="1746083" cy="1318148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149392</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1895475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1428529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88AFE8D0-95E1-1DEE-C531-59DA3484F72A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5683417" y="15483731"/>
+          <a:ext cx="1746083" cy="1318148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149392</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>81806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1895475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1399954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003D23C2-4623-50A9-118F-F7620E40338D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5683417" y="16912481"/>
+          <a:ext cx="1746083" cy="1318148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18651</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>96752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2090114</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1299881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB2B125-0872-379F-0CCE-8A2C750133B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect b="22917"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5559960" y="18390356"/>
+          <a:ext cx="2071463" cy="1203129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>90121</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>186112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1995921</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1238250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357A3B80-FADC-53ED-5F7E-750E195F9F02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5631430" y="20054141"/>
+          <a:ext cx="1905800" cy="1052138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2089167</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC4B087-DFBC-A0CF-9673-F4707EDEDF5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5536409" y="21312188"/>
+          <a:ext cx="2089166" cy="1238249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2080677</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1293235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B73465-3381-7850-79C9-775E639BAB76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5557837" y="22579013"/>
+          <a:ext cx="2056865" cy="1269422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2008909</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1198861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA38EFB-65E8-1295-9B62-0905E0EC55C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5541818" y="6961909"/>
+          <a:ext cx="2008909" cy="1198861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34726</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>115016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2062002</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1295400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F035B3-9945-6324-9E69-9CC8A0930F32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5568751" y="8368429"/>
+          <a:ext cx="2027276" cy="1180384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61835</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>105444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2187263</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1295400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B957D0D-FBBF-C2B5-AE4D-9ABB6C8C15D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5595860" y="9739982"/>
+          <a:ext cx="2125428" cy="1189956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106955</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2037437</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1391450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2DBD92A-9224-4BCF-6F1E-F9C886068297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5640980" y="11263313"/>
+          <a:ext cx="1930482" cy="1220000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>59652</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>262717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2208694</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1462087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A55B76-BE45-AFBC-98F0-01017215F59A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5593677" y="43229992"/>
+          <a:ext cx="2149042" cy="1199370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>49010</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>185579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1301055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19750E3C-6688-7212-48E6-0A979C5E1ECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5583035" y="44772104"/>
+          <a:ext cx="2103640" cy="1115476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>118257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2215900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1559029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707A7D61-EFB0-1C7D-A995-228338CB58C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5576887" y="46324032"/>
+          <a:ext cx="2173038" cy="1440772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91678</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>41606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2052638</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1006732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E981AE-CCBD-1025-E26B-3FBA1E892571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5625703" y="25297144"/>
+          <a:ext cx="1960960" cy="965126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>62533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1953819</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>880965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{843BEDDB-8970-B7C4-8E12-5CC3A8E46B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629276" y="26351533"/>
+          <a:ext cx="1858568" cy="818432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>96492</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>905414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2047804</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>890588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9227360E-0C30-5635-8362-95C5E67AE551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5630517" y="27194414"/>
+          <a:ext cx="1951312" cy="894812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>70205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2206264</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>930409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4004384C-E672-DECC-94DF-0F47BE039144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5576887" y="28168955"/>
+          <a:ext cx="2163402" cy="860204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167893</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2024063</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>761134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520C6EA3-AECE-BC50-3560-125134A1EB62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5701918" y="29119254"/>
+          <a:ext cx="1856170" cy="712180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63092</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>41140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2185988</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>807010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0410F8A-06F1-7AC7-A197-0E70B4D2049D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5597117" y="29897253"/>
+          <a:ext cx="2122896" cy="765870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85357</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>48119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2163739</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>904875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B7CBD6-F1D2-7057-613C-4958B15FAD7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619382" y="30771007"/>
+          <a:ext cx="2078382" cy="856756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2101492</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>850366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9149ED0-DED4-8CA7-CE6C-104411C93BCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5700713" y="31697095"/>
+          <a:ext cx="1934804" cy="842946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2167813</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>804861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C312ACC-F52A-EE69-0FA3-8D1E6095FBFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5557838" y="32579647"/>
+          <a:ext cx="2144000" cy="786427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2153869</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>896627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A98F8CC-D078-C3F8-5A90-A75E9C4612F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591176" y="33636734"/>
+          <a:ext cx="2096718" cy="811706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134583</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>39576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>799114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395F82A7-5105-BF38-420E-8DBA019A257F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5668608" y="34567701"/>
+          <a:ext cx="1913292" cy="759538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>48422</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2114984</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1005420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598B2D49-91D0-275B-6501-396C70D372E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5582447" y="35447288"/>
+          <a:ext cx="2066562" cy="895882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>39306</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>83897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2178565</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B31ECA2-DCEE-A287-A958-8C80A5EF18CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5573331" y="36507497"/>
+          <a:ext cx="2139259" cy="801928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180977</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2125281</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>886034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{863F3260-3819-2573-C25C-D5BC6C273AD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715002" y="37538283"/>
+          <a:ext cx="1944304" cy="752426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38870</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2162175</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>905922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF8FCDC-647E-12D0-494E-C89539A298BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572895" y="38624319"/>
+          <a:ext cx="2123305" cy="795941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>49740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2181226</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>951213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F261682D-E5A1-378E-90C4-9FF1476DC42D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572126" y="39697553"/>
+          <a:ext cx="2143125" cy="901473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>52699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2150257</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>900113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58867F0-FA03-7420-D15B-2F249680B15D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610225" y="40738737"/>
+          <a:ext cx="2074057" cy="847414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2170952</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>866775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75087338-D457-3332-94FD-537738625265}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581651" y="41738550"/>
+          <a:ext cx="2123326" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2152668</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>757238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F0DD61-C8A8-8389-8471-1419C0FCE497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572126" y="42732061"/>
+          <a:ext cx="2114567" cy="725752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>170363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2201486</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>954027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECBCA60-8848-D25D-4CD7-A7DB8A11DDE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="43847251"/>
+          <a:ext cx="2163386" cy="783664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33053</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>62339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2210599</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>847724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E7E84C-CDCD-C151-CEE5-F98A9676B57A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5567078" y="45087014"/>
+          <a:ext cx="2177546" cy="785385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2413177</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>917865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A9BAF5-87F5-F624-79F6-139A01DF3C58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5541819" y="46118319"/>
+          <a:ext cx="2413176" cy="917864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>82644</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2422663</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>919116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3597C58A-8853-313E-842C-4CBBF458C681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5611286" y="47546316"/>
+          <a:ext cx="2340019" cy="828007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53836</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>21351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2458334</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>869674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB93574-7C00-FED6-2433-AE8FF584202D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5582478" y="48532590"/>
+          <a:ext cx="2404498" cy="848323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>32132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2331553</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>853214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9956D56F-C20B-5C8A-3ACA-05B72A6134F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5611468" y="49591122"/>
+          <a:ext cx="2248727" cy="821082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>86966</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>223570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2362124</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1051136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76057922-C92A-B859-C9EC-474E61179988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5615608" y="50639809"/>
+          <a:ext cx="2275158" cy="827566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="942975" cy="466725"/>
     <xdr:pic>
@@ -956,6 +3235,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="881063"/>
+          <a:ext cx="942975" cy="466725"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1170,8 +3453,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1180,162 +3463,173 @@
     <col min="2" max="2" width="11.73046875" customWidth="1"/>
     <col min="4" max="4" width="17.3984375" customWidth="1"/>
     <col min="5" max="5" width="16.46484375" customWidth="1"/>
+    <col min="6" max="6" width="34.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="e" cm="1">
+      <c r="A1" s="8" t="e" cm="1">
         <f t="array" ref="A1">+L45C7A1:L108A1:L66C7A1:L1A1:L108</f>
         <v>#NAME?</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="60.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" ht="80.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="15" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" ht="84.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="89.25" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
@@ -1344,835 +3638,981 @@
       <c r="B10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>114</v>
+      <c r="D10" s="16" t="s">
+        <v>106</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="76.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="102.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>115</v>
+      <c r="D11" s="21" t="s">
+        <v>107</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>94</v>
+      <c r="E11" s="21" t="s">
+        <v>227</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" ht="63.75" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="15" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>114</v>
+      <c r="D12" s="21" t="s">
+        <v>106</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>95</v>
+      <c r="E12" s="21" t="s">
+        <v>228</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="114.75" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>116</v>
+      <c r="D13" s="21" t="s">
+        <v>108</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>95</v>
+      <c r="E13" s="21" t="s">
+        <v>228</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="89.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="15" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>117</v>
+      <c r="D14" s="21" t="s">
+        <v>109</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" ht="76.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>102</v>
+      <c r="C15" s="17" t="s">
+        <v>100</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>117</v>
+      <c r="D15" s="16" t="s">
+        <v>106</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>120</v>
+      <c r="E15" s="17" t="s">
+        <v>111</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="63.75" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>51</v>
+      <c r="D16" s="21" t="s">
+        <v>106</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>103</v>
+      <c r="E16" s="23" t="s">
+        <v>110</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>117</v>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" ht="63.75" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>104</v>
+      <c r="C17" s="17" t="s">
+        <v>102</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>117</v>
+      <c r="D17" s="16" t="s">
+        <v>106</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>118</v>
+      <c r="E17" s="17" t="s">
+        <v>220</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="114.75" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
-        <v>98</v>
+      <c r="A18" s="23" t="s">
+        <v>96</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>105</v>
+      <c r="C18" s="23" t="s">
+        <v>103</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>108</v>
+      <c r="D18" s="23" t="s">
+        <v>223</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>113</v>
+      <c r="E18" s="23" t="s">
+        <v>224</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" ht="114.75" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
-        <v>99</v>
+      <c r="A19" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>106</v>
+      <c r="C19" s="17" t="s">
+        <v>104</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>109</v>
+      <c r="D19" s="17" t="s">
+        <v>222</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>112</v>
+      <c r="E19" s="17" t="s">
+        <v>225</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="114.75" x14ac:dyDescent="0.35">
-      <c r="A20" s="19" t="s">
-        <v>100</v>
+      <c r="A20" s="23" t="s">
+        <v>98</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>107</v>
+      <c r="C20" s="23" t="s">
+        <v>105</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>110</v>
+      <c r="D20" s="23" t="s">
+        <v>221</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>111</v>
+      <c r="E20" s="23" t="s">
+        <v>226</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" ht="63.75" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>122</v>
+      <c r="C21" s="17" t="s">
+        <v>113</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>114</v>
+      <c r="D21" s="16" t="s">
+        <v>106</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>121</v>
+      <c r="E21" s="17" t="s">
+        <v>112</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" ht="63.75" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>123</v>
+      <c r="C22" s="17" t="s">
+        <v>114</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>126</v>
+      <c r="D22" s="17" t="s">
+        <v>117</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>129</v>
+      <c r="E22" s="17" t="s">
+        <v>120</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" ht="63.75" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>124</v>
+      <c r="C23" s="17" t="s">
+        <v>115</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>127</v>
+      <c r="D23" s="17" t="s">
+        <v>118</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>130</v>
+      <c r="E23" s="17" t="s">
+        <v>121</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" ht="63.75" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14"/>
       <c r="B24" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="81.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" ht="71.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D27" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" ht="68.349999999999994" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="D30" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:8" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:8" ht="68.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
-        <v>16</v>
+      <c r="D33" s="23" t="s">
+        <v>166</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>60</v>
+      <c r="E33" s="21" t="s">
+        <v>195</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="F33" s="21"/>
+      <c r="G33" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:8" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>147</v>
+      <c r="D34" s="23" t="s">
+        <v>167</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15" t="s">
-        <v>61</v>
+      <c r="E34" s="21" t="s">
+        <v>196</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="F34" s="21"/>
+      <c r="G34" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:8" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>172</v>
+      <c r="D35" s="23" t="s">
+        <v>168</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15" t="s">
-        <v>62</v>
+      <c r="E35" s="21" t="s">
+        <v>197</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="F35" s="21"/>
+      <c r="G35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>173</v>
+      <c r="D36" s="23" t="s">
+        <v>169</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15" t="s">
-        <v>63</v>
+      <c r="E36" s="21" t="s">
+        <v>198</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="F36" s="21"/>
+      <c r="G36" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>174</v>
+      <c r="D37" s="23" t="s">
+        <v>158</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
-      <c r="B29" s="15" t="s">
-        <v>64</v>
+      <c r="E37" s="21" t="s">
+        <v>199</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>136</v>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
-      <c r="B31" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
-      <c r="B32" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" ht="63.75" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" ht="63.75" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:8" ht="63.75" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
-      <c r="B37" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:8" ht="87.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>145</v>
+      <c r="C38" s="17" t="s">
+        <v>136</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>148</v>
+      <c r="D38" s="17" t="s">
+        <v>139</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
+      <c r="E38" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>159</v>
+      <c r="C39" s="17" t="s">
+        <v>150</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>160</v>
+      <c r="D39" s="17" t="s">
+        <v>151</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
+      <c r="E39" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="14"/>
       <c r="B40" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>158</v>
+      <c r="C40" s="17" t="s">
+        <v>149</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>161</v>
+      <c r="D40" s="17" t="s">
+        <v>152</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
+      <c r="E40" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:8" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="14"/>
       <c r="B41" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>157</v>
+      <c r="C41" s="17" t="s">
+        <v>148</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>162</v>
+      <c r="D41" s="17" t="s">
+        <v>215</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A42" s="13"/>
+      <c r="E41" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="14"/>
       <c r="B42" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:8" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="1:8" ht="106.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="16"/>
+    </row>
+    <row r="45" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="16"/>
+    </row>
+    <row r="46" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>163</v>
+      <c r="E47" s="16" t="s">
+        <v>209</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A43" s="13"/>
-      <c r="B43" s="15" t="s">
+      <c r="F47" s="16"/>
+      <c r="G47" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="1:8" ht="97.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="1:8" ht="127.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="21"/>
+    </row>
+    <row r="52" spans="1:8" ht="127.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="19"/>
+      <c r="B52" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="21"/>
+    </row>
+    <row r="53" spans="1:8" ht="127.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="19"/>
+      <c r="B53" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A44" s="13"/>
-      <c r="B44" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A45" s="13"/>
-      <c r="B45" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A46" s="13"/>
-      <c r="B46" s="15" t="s">
+      <c r="D53" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>152</v>
+      <c r="E53" s="21" t="s">
+        <v>217</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>167</v>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
-      <c r="B47" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A49" s="13"/>
-      <c r="B49" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:8" ht="51" x14ac:dyDescent="0.35">
-      <c r="A50" s="13"/>
-      <c r="B50" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="1:8" ht="127.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="1:8" ht="127.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="13"/>
-      <c r="B52" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:8" ht="127.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="13"/>
-      <c r="B53" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+      <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A54" s="14"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B55" s="11"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A59" s="10"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
@@ -5003,7 +7443,8 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5165,7 +7606,7 @@
       <c r="AA4" s="4"/>
     </row>
     <row r="5" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -5206,7 +7647,7 @@
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -5243,7 +7684,7 @@
       <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -5280,7 +7721,7 @@
       <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
@@ -5317,7 +7758,7 @@
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
@@ -5354,7 +7795,7 @@
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
